--- a/Documentation/Appendix T - White Box Testing.xlsx
+++ b/Documentation/Appendix T - White Box Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Explaination" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="122">
   <si>
     <t>Graphical Enigma Simulator</t>
   </si>
@@ -353,27 +353,6 @@
   </si>
   <si>
     <t>Current key</t>
-  </si>
-  <si>
-    <t>This is the letter which has been pressed</t>
-  </si>
-  <si>
-    <t>This is the index of the letter which has been pressed</t>
-  </si>
-  <si>
-    <t>The letter is then mapped to rotor to find which letter on the rotor it maps to</t>
-  </si>
-  <si>
-    <t>This is the index of which the letter on the reflector is</t>
-  </si>
-  <si>
-    <t>This is the letter which the reflector produces from the given input from the rotor</t>
-  </si>
-  <si>
-    <t>This is the index of where the letter on the rotor will be, calculated from the given output of the reflector</t>
-  </si>
-  <si>
-    <t>This is the final output (encrypted/decrypted text)</t>
   </si>
   <si>
     <t>Majed Monem</t>
@@ -418,6 +397,30 @@
   </si>
   <si>
     <t xml:space="preserve">This spreadsheat contains the results of white box testing of the Graphical Enigma simulator. Every rotor and reflector settings combination was tested for each mode, Encrypt and Decrypt along with the process which occurs in between. </t>
+  </si>
+  <si>
+    <t>Note: Index values range from 0 to 25</t>
+  </si>
+  <si>
+    <t>This is the letter which has been pressed.</t>
+  </si>
+  <si>
+    <t>This is the index of the letter which has been pressed.</t>
+  </si>
+  <si>
+    <t>The letter is then mapped to rotor to find which letter on the rotor it maps to.</t>
+  </si>
+  <si>
+    <t>This is the index of which the letter on the reflector is.</t>
+  </si>
+  <si>
+    <t>This is the letter which the reflector produces from the given input from the rotor.</t>
+  </si>
+  <si>
+    <t>This is the index of where the letter on the rotor will be, calculated from the given output of the reflector.</t>
+  </si>
+  <si>
+    <t>This is the final output (encrypted/decrypted text).</t>
   </si>
 </sst>
 </file>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,22 +929,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,7 +957,7 @@
         <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -957,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -965,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -973,7 +981,7 @@
         <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,7 +989,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,7 +997,7 @@
         <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -997,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5097,7 +5105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5191,7 +5199,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
